--- a/product_ranking_flat_eyelash_extension.xlsx
+++ b/product_ranking_flat_eyelash_extension.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
-  <si>
-    <t>2018-10-11 20:30:54</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+  <si>
+    <t>2018-10-14 22:40:18</t>
   </si>
   <si>
     <t>2018-10-11 19:17:10</t>
@@ -49,7 +49,7 @@
     <t>flat lash</t>
   </si>
   <si>
-    <t>8-3</t>
+    <t>7-30</t>
   </si>
   <si>
     <t>8-2</t>
@@ -58,6 +58,9 @@
     <t>flat eyelash extension</t>
   </si>
   <si>
+    <t>4-27</t>
+  </si>
+  <si>
     <t>5-16</t>
   </si>
   <si>
@@ -67,37 +70,64 @@
     <t>ellipse flat eyelash extension</t>
   </si>
   <si>
+    <t>3-22</t>
+  </si>
+  <si>
     <t>4-4</t>
   </si>
   <si>
+    <t>ellipse flat lash</t>
+  </si>
+  <si>
+    <t>5-14</t>
+  </si>
+  <si>
+    <t>5-27</t>
+  </si>
+  <si>
     <t>eyelash extension flat</t>
   </si>
   <si>
-    <t>5-14</t>
+    <t>4-26</t>
+  </si>
+  <si>
+    <t>ellipse lash</t>
+  </si>
+  <si>
+    <t>5-22</t>
   </si>
   <si>
     <t>flat lash extension</t>
   </si>
   <si>
+    <t>3-11</t>
+  </si>
+  <si>
     <t>3-32</t>
   </si>
   <si>
     <t>flat lash ellipse</t>
   </si>
   <si>
+    <t>4-8</t>
+  </si>
+  <si>
     <t>1-18</t>
   </si>
   <si>
     <t>flat eyelash</t>
   </si>
   <si>
+    <t>14-21</t>
+  </si>
+  <si>
     <t>3-21</t>
   </si>
   <si>
     <t>matt flat lash</t>
   </si>
   <si>
-    <t>3-26</t>
+    <t>3-24</t>
   </si>
   <si>
     <t>3-27</t>
@@ -109,7 +139,7 @@
     <t>cashmere flat lash</t>
   </si>
   <si>
-    <t>2-20</t>
+    <t>2-22</t>
   </si>
   <si>
     <t>2-23</t>
@@ -121,28 +151,19 @@
     <t>6-11</t>
   </si>
   <si>
-    <t>ellipse flat lash</t>
-  </si>
-  <si>
-    <t>5-27</t>
-  </si>
-  <si>
     <t>eyelash flat</t>
   </si>
   <si>
-    <t>3-16</t>
-  </si>
-  <si>
     <t>flat eyelash extention</t>
   </si>
   <si>
-    <t>1-30</t>
+    <t>1-28</t>
   </si>
   <si>
     <t>flat matte eyelash extension</t>
   </si>
   <si>
-    <t>2-11</t>
+    <t>2-5</t>
   </si>
   <si>
     <t>2-12</t>
@@ -151,7 +172,14 @@
     <t>matte cashmere flat lash extension wholesale</t>
   </si>
   <si>
+    <t>1-32</t>
+  </si>
+  <si>
     <t>1-31</t>
+  </si>
+  <si>
+    <t>flat lash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -716,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA75"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -953,7 +981,7 @@
         <v>373</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1002,10 +1030,10 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="33"/>
@@ -1039,16 +1067,16 @@
         <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="46"/>
@@ -1073,25 +1101,25 @@
     </row>
     <row r="10" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>116</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="46"/>
@@ -1116,25 +1144,25 @@
     </row>
     <row r="11" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="46"/>
@@ -1159,25 +1187,19 @@
     </row>
     <row r="12" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="46"/>
@@ -1202,40 +1224,40 @@
     </row>
     <row r="13" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
       <c r="P13" s="46"/>
       <c r="Q13" s="45"/>
       <c r="R13" s="47"/>
       <c r="S13" s="45"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
       <c r="V13" s="48"/>
       <c r="W13" s="48"/>
       <c r="X13" s="49"/>
@@ -1245,25 +1267,25 @@
     </row>
     <row r="14" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="46"/>
@@ -1288,40 +1310,40 @@
     </row>
     <row r="15" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
+        <v>33</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="45"/>
       <c r="R15" s="47"/>
       <c r="S15" s="45"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
       <c r="V15" s="48"/>
       <c r="W15" s="48"/>
       <c r="X15" s="49"/>
@@ -1331,40 +1353,40 @@
     </row>
     <row r="16" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
+        <v>37</v>
+      </c>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
       <c r="P16" s="46"/>
       <c r="Q16" s="45"/>
       <c r="R16" s="47"/>
       <c r="S16" s="45"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
       <c r="V16" s="48"/>
       <c r="W16" s="48"/>
       <c r="X16" s="49"/>
@@ -1374,25 +1396,25 @@
     </row>
     <row r="17" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H17" s="45"/>
       <c r="I17" s="46"/>
@@ -1423,34 +1445,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
+        <v>42</v>
+      </c>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
       <c r="P18" s="46"/>
       <c r="Q18" s="45"/>
       <c r="R18" s="47"/>
       <c r="S18" s="45"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
       <c r="V18" s="48"/>
       <c r="W18" s="48"/>
       <c r="X18" s="49"/>
@@ -1460,7 +1482,7 @@
     </row>
     <row r="19" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1469,16 +1491,16 @@
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="46"/>
@@ -1503,7 +1525,7 @@
     </row>
     <row r="20" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1512,16 +1534,16 @@
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="46"/>
@@ -1546,7 +1568,7 @@
     </row>
     <row r="21" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1555,16 +1577,16 @@
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H21" s="45"/>
       <c r="I21" s="46"/>
@@ -1588,13 +1610,27 @@
       <c r="AA21" s="51"/>
     </row>
     <row r="22" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
       <c r="H22" s="45"/>
       <c r="I22" s="46"/>
       <c r="J22" s="46"/>
@@ -1706,10 +1742,7 @@
     <row r="26" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="43"/>
       <c r="B26" s="43"/>
-      <c r="C26" s="43">
-        <f>SUM(C7:C9)</f>
-        <v>845</v>
-      </c>
+      <c r="C26" s="43"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -1738,7 +1771,10 @@
     <row r="27" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="43"/>
       <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
+      <c r="C27" s="43">
+        <f>SUM(C7:C9)</f>
+        <v>845</v>
+      </c>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -2226,7 +2262,7 @@
       <c r="X43" s="49"/>
       <c r="Y43" s="50"/>
       <c r="Z43" s="50"/>
-      <c r="AA43" s="23"/>
+      <c r="AA43" s="51"/>
     </row>
     <row r="44" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="43"/>
@@ -2516,16 +2552,16 @@
       <c r="X53" s="49"/>
       <c r="Y53" s="50"/>
       <c r="Z53" s="50"/>
-      <c r="AA53" s="51"/>
+      <c r="AA53" s="23"/>
     </row>
     <row r="54" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
       <c r="H54" s="45"/>
       <c r="I54" s="46"/>
       <c r="J54" s="46"/>
@@ -2548,13 +2584,13 @@
       <c r="AA54" s="51"/>
     </row>
     <row r="55" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
       <c r="H55" s="45"/>
       <c r="I55" s="46"/>
       <c r="J55" s="46"/>
@@ -2584,7 +2620,7 @@
       <c r="E56" s="30"/>
       <c r="F56" s="30"/>
       <c r="G56" s="30"/>
-      <c r="H56" s="46"/>
+      <c r="H56" s="45"/>
       <c r="I56" s="46"/>
       <c r="J56" s="46"/>
       <c r="K56" s="46"/>
@@ -2788,19 +2824,19 @@
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
       <c r="H63" s="46"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="48"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="48"/>
-      <c r="P63" s="48"/>
-      <c r="Q63" s="50"/>
-      <c r="R63" s="50"/>
-      <c r="S63" s="48"/>
-      <c r="T63" s="48"/>
-      <c r="U63" s="48"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="45"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="46"/>
       <c r="V63" s="48"/>
       <c r="W63" s="48"/>
       <c r="X63" s="49"/>
@@ -2809,14 +2845,14 @@
       <c r="AA63" s="51"/>
     </row>
     <row r="64" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="48"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="46"/>
       <c r="I64" s="48"/>
       <c r="J64" s="48"/>
       <c r="K64" s="48"/>
@@ -2825,7 +2861,7 @@
       <c r="N64" s="48"/>
       <c r="O64" s="48"/>
       <c r="P64" s="48"/>
-      <c r="Q64" s="48"/>
+      <c r="Q64" s="50"/>
       <c r="R64" s="50"/>
       <c r="S64" s="48"/>
       <c r="T64" s="48"/>
@@ -2837,7 +2873,10 @@
       <c r="Z64" s="50"/>
       <c r="AA64" s="51"/>
     </row>
-    <row r="65" spans="4:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
@@ -2863,7 +2902,7 @@
       <c r="Z65" s="50"/>
       <c r="AA65" s="51"/>
     </row>
-    <row r="66" spans="4:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
@@ -2889,7 +2928,7 @@
       <c r="Z66" s="50"/>
       <c r="AA66" s="51"/>
     </row>
-    <row r="67" spans="4:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
@@ -2915,53 +2954,79 @@
       <c r="Z67" s="50"/>
       <c r="AA67" s="51"/>
     </row>
-    <row r="68" spans="4:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D68" s="21"/>
       <c r="E68" s="21"/>
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
       <c r="H68" s="48"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="7"/>
-      <c r="Z68" s="7"/>
-      <c r="AA68" s="6"/>
-    </row>
-    <row r="69" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="5"/>
-    </row>
-    <row r="70" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="R70" s="47"/>
-    </row>
-    <row r="72" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="R72" s="9"/>
-    </row>
-    <row r="73" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="48"/>
+      <c r="Q68" s="48"/>
+      <c r="R68" s="50"/>
+      <c r="S68" s="48"/>
+      <c r="T68" s="48"/>
+      <c r="U68" s="48"/>
+      <c r="V68" s="48"/>
+      <c r="W68" s="48"/>
+      <c r="X68" s="49"/>
+      <c r="Y68" s="50"/>
+      <c r="Z68" s="50"/>
+      <c r="AA68" s="51"/>
+    </row>
+    <row r="69" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="6"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R71" s="47"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="R73" s="9"/>
     </row>
-    <row r="74" spans="4:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="R74" s="9"/>
     </row>
-    <row r="75" spans="4:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="R75" s="9"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R76" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3032,7 +3097,7 @@
         <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -3046,7 +3111,7 @@
         <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -3060,7 +3125,7 @@
         <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -3074,7 +3139,7 @@
         <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -3088,7 +3153,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -3102,7 +3167,7 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -3116,7 +3181,7 @@
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -3130,7 +3195,7 @@
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -3144,7 +3209,7 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -3158,7 +3223,7 @@
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -3172,7 +3237,7 @@
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -3186,7 +3251,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -3200,7 +3265,7 @@
         <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
